--- a/res_img/resnet50-block-10k-size(768)-medium/动态.xlsx
+++ b/res_img/resnet50-block-10k-size(768)-medium/动态.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-block-10k-size(768)-medium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B614D0-A0AB-4652-BA95-1BB112541ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0771BD-B94A-409C-8251-56E9C418C683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1531,16 +1531,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2722</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>454479</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:rowOff>16328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>146956</xdr:rowOff>
+      <xdr:rowOff>65313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1831,15 +1831,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2076,8 +2076,14 @@
       <c r="E14">
         <v>0.121</v>
       </c>
+      <c r="F14">
+        <v>0.751</v>
+      </c>
+      <c r="G14">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2093,8 +2099,14 @@
       <c r="E15">
         <v>0.19500000000000001</v>
       </c>
+      <c r="F15">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.60799999999999998</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2109,6 +2121,38 @@
       </c>
       <c r="E16">
         <v>0.191</v>
+      </c>
+      <c r="F16">
+        <v>0.753</v>
+      </c>
+      <c r="G16">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <f>SUM(B14:B16)/3</f>
+        <v>0.57866666666666655</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:G18" si="0">SUM(C14:C16)/3</f>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.66866666666666674</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.74733333333333329</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.63100000000000001</v>
       </c>
     </row>
   </sheetData>
